--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="H2">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="I2">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="J2">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.250293</v>
       </c>
       <c r="O2">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="P2">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="Q2">
-        <v>0.4504582635113332</v>
+        <v>0.4654193051036666</v>
       </c>
       <c r="R2">
-        <v>4.054124371602</v>
+        <v>4.188773745933</v>
       </c>
       <c r="S2">
-        <v>0.01242187691783109</v>
+        <v>0.001395570900078547</v>
       </c>
       <c r="T2">
-        <v>0.01242187691783109</v>
+        <v>0.001395570900078547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="H3">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="I3">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="J3">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1983123333333333</v>
+        <v>4.699187666666667</v>
       </c>
       <c r="N3">
-        <v>0.5949369999999999</v>
+        <v>14.097563</v>
       </c>
       <c r="O3">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="P3">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="Q3">
-        <v>1.070722265179777</v>
+        <v>26.21438863697811</v>
       </c>
       <c r="R3">
-        <v>9.636500386617998</v>
+        <v>235.929497732803</v>
       </c>
       <c r="S3">
-        <v>0.02952633189047906</v>
+        <v>0.07860447030010437</v>
       </c>
       <c r="T3">
-        <v>0.02952633189047906</v>
+        <v>0.07860447030010438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="H4">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="I4">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="J4">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.211968</v>
+        <v>0.1492686666666667</v>
       </c>
       <c r="N4">
-        <v>0.635904</v>
+        <v>0.447806</v>
       </c>
       <c r="O4">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="P4">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="Q4">
-        <v>1.144451549184</v>
+        <v>0.8326943116317779</v>
       </c>
       <c r="R4">
-        <v>10.300063942656</v>
+        <v>7.494248804686</v>
       </c>
       <c r="S4">
-        <v>0.03155949714756891</v>
+        <v>0.002496853777295306</v>
       </c>
       <c r="T4">
-        <v>0.0315594971475689</v>
+        <v>0.002496853777295306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="H5">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="I5">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="J5">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.730481</v>
+        <v>1.263591</v>
       </c>
       <c r="N5">
-        <v>2.191443</v>
+        <v>3.790773</v>
       </c>
       <c r="O5">
-        <v>0.5967044394167911</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="P5">
-        <v>0.596704439416791</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="Q5">
-        <v>3.943992074744666</v>
+        <v>7.048934390757001</v>
       </c>
       <c r="R5">
-        <v>35.495928672702</v>
+        <v>63.44040951681301</v>
       </c>
       <c r="S5">
-        <v>0.1087598743010892</v>
+        <v>0.02113639809185017</v>
       </c>
       <c r="T5">
-        <v>0.1087598743010892</v>
+        <v>0.02113639809185017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>11.113427</v>
       </c>
       <c r="I6">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="J6">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.250293</v>
       </c>
       <c r="O6">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="P6">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="Q6">
         <v>0.3090681093456666</v>
@@ -824,10 +824,10 @@
         <v>2.781612984111</v>
       </c>
       <c r="S6">
-        <v>0.008522889520533884</v>
+        <v>0.0009267481060955</v>
       </c>
       <c r="T6">
-        <v>0.008522889520533882</v>
+        <v>0.0009267481060955002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>11.113427</v>
       </c>
       <c r="I7">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="J7">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1983123333333333</v>
+        <v>4.699187666666667</v>
       </c>
       <c r="N7">
-        <v>0.5949369999999999</v>
+        <v>14.097563</v>
       </c>
       <c r="O7">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="P7">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="Q7">
-        <v>0.7346432132332221</v>
+        <v>17.40802636426678</v>
       </c>
       <c r="R7">
-        <v>6.611788919098999</v>
+        <v>156.672237278401</v>
       </c>
       <c r="S7">
-        <v>0.02025858622765266</v>
+        <v>0.05219838273867826</v>
       </c>
       <c r="T7">
-        <v>0.02025858622765266</v>
+        <v>0.05219838273867827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>11.113427</v>
       </c>
       <c r="I8">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="J8">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.211968</v>
+        <v>0.1492686666666667</v>
       </c>
       <c r="N8">
-        <v>0.635904</v>
+        <v>0.447806</v>
       </c>
       <c r="O8">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="P8">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="Q8">
-        <v>0.7852302981120001</v>
+        <v>0.5529621434624445</v>
       </c>
       <c r="R8">
-        <v>7.067072683008</v>
+        <v>4.976659291162</v>
       </c>
       <c r="S8">
-        <v>0.02165358015472099</v>
+        <v>0.001658070191328569</v>
       </c>
       <c r="T8">
-        <v>0.02165358015472098</v>
+        <v>0.00165807019132857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>11.113427</v>
       </c>
       <c r="I9">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="J9">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.730481</v>
+        <v>1.263591</v>
       </c>
       <c r="N9">
-        <v>2.191443</v>
+        <v>3.790773</v>
       </c>
       <c r="O9">
-        <v>0.5967044394167911</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="P9">
-        <v>0.596704439416791</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="Q9">
-        <v>2.706049089462334</v>
+        <v>4.680942112119</v>
       </c>
       <c r="R9">
-        <v>24.354441805161</v>
+        <v>42.128479009071</v>
       </c>
       <c r="S9">
-        <v>0.07462224904231178</v>
+        <v>0.01403591669918039</v>
       </c>
       <c r="T9">
-        <v>0.07462224904231175</v>
+        <v>0.01403591669918039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="H10">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="I10">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="J10">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.250293</v>
       </c>
       <c r="O10">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="P10">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="Q10">
-        <v>0.5316111800563332</v>
+        <v>2.066832797949667</v>
       </c>
       <c r="R10">
-        <v>4.784500620507</v>
+        <v>18.601495181547</v>
       </c>
       <c r="S10">
-        <v>0.01465975692248916</v>
+        <v>0.006197447498453054</v>
       </c>
       <c r="T10">
-        <v>0.01465975692248916</v>
+        <v>0.006197447498453058</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="H11">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="I11">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="J11">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1983123333333333</v>
+        <v>4.699187666666667</v>
       </c>
       <c r="N11">
-        <v>0.5949369999999999</v>
+        <v>14.097563</v>
       </c>
       <c r="O11">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="P11">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="Q11">
-        <v>1.263619680251444</v>
+        <v>116.4127865324308</v>
       </c>
       <c r="R11">
-        <v>11.372577122263</v>
+        <v>1047.715078791877</v>
       </c>
       <c r="S11">
-        <v>0.03484568807036128</v>
+        <v>0.3490665202328245</v>
       </c>
       <c r="T11">
-        <v>0.03484568807036127</v>
+        <v>0.3490665202328246</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="H12">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="I12">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="J12">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.211968</v>
+        <v>0.1492686666666667</v>
       </c>
       <c r="N12">
-        <v>0.635904</v>
+        <v>0.447806</v>
       </c>
       <c r="O12">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="P12">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="Q12">
-        <v>1.350631762944</v>
+        <v>3.697826658830445</v>
       </c>
       <c r="R12">
-        <v>12.155685866496</v>
+        <v>33.28043992947401</v>
       </c>
       <c r="S12">
-        <v>0.03724514095895031</v>
+        <v>0.01108802153672803</v>
       </c>
       <c r="T12">
-        <v>0.03724514095895031</v>
+        <v>0.01108802153672804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="H13">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="I13">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="J13">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.730481</v>
+        <v>1.263591</v>
       </c>
       <c r="N13">
-        <v>2.191443</v>
+        <v>3.790773</v>
       </c>
       <c r="O13">
-        <v>0.5967044394167911</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="P13">
-        <v>0.596704439416791</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="Q13">
-        <v>4.654527291039667</v>
+        <v>31.30288887816301</v>
       </c>
       <c r="R13">
-        <v>41.890745619357</v>
+        <v>281.725999903467</v>
       </c>
       <c r="S13">
-        <v>0.12835365627281</v>
+        <v>0.0938624597813498</v>
       </c>
       <c r="T13">
-        <v>0.12835365627281</v>
+        <v>0.09386245978134983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="H14">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="I14">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="J14">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.250293</v>
       </c>
       <c r="O14">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="P14">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="Q14">
-        <v>0.05272449855333332</v>
+        <v>0.03580077049633333</v>
       </c>
       <c r="R14">
-        <v>0.4745204869799999</v>
+        <v>0.322206934467</v>
       </c>
       <c r="S14">
-        <v>0.001453935435613098</v>
+        <v>0.0001073494652181323</v>
       </c>
       <c r="T14">
-        <v>0.001453935435613098</v>
+        <v>0.0001073494652181324</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="H15">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="I15">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="J15">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1983123333333333</v>
+        <v>4.699187666666667</v>
       </c>
       <c r="N15">
-        <v>0.5949369999999999</v>
+        <v>14.097563</v>
       </c>
       <c r="O15">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="P15">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="Q15">
-        <v>0.1253241400911111</v>
+        <v>2.016451189288556</v>
       </c>
       <c r="R15">
-        <v>1.12791726082</v>
+        <v>18.148060703597</v>
       </c>
       <c r="S15">
-        <v>0.003455949572130862</v>
+        <v>0.006046377041822703</v>
       </c>
       <c r="T15">
-        <v>0.003455949572130861</v>
+        <v>0.006046377041822705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="H16">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="I16">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="J16">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.211968</v>
+        <v>0.1492686666666667</v>
       </c>
       <c r="N16">
-        <v>0.635904</v>
+        <v>0.447806</v>
       </c>
       <c r="O16">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="P16">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="Q16">
-        <v>0.13395388416</v>
+        <v>0.0640521302348889</v>
       </c>
       <c r="R16">
-        <v>1.20558495744</v>
+        <v>0.5764691721140001</v>
       </c>
       <c r="S16">
-        <v>0.003693924157879413</v>
+        <v>0.0001920618420070517</v>
       </c>
       <c r="T16">
-        <v>0.003693924157879412</v>
+        <v>0.0001920618420070517</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="H17">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="I17">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="J17">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.730481</v>
+        <v>1.263591</v>
       </c>
       <c r="N17">
-        <v>2.191443</v>
+        <v>3.790773</v>
       </c>
       <c r="O17">
-        <v>0.5967044394167911</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="P17">
-        <v>0.596704439416791</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="Q17">
-        <v>0.4616299028866667</v>
+        <v>0.5422149008430001</v>
       </c>
       <c r="R17">
-        <v>4.15466912598</v>
+        <v>4.879934107587</v>
       </c>
       <c r="S17">
-        <v>0.01272994703338198</v>
+        <v>0.001625844327701275</v>
       </c>
       <c r="T17">
-        <v>0.01272994703338197</v>
+        <v>0.001625844327701276</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="H18">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="I18">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="J18">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.250293</v>
       </c>
       <c r="O18">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="P18">
-        <v>0.06815187264964083</v>
+        <v>0.0134664339880133</v>
       </c>
       <c r="Q18">
-        <v>1.127549830318667</v>
+        <v>1.61390011003</v>
       </c>
       <c r="R18">
-        <v>10.147948472868</v>
+        <v>14.52510099027</v>
       </c>
       <c r="S18">
-        <v>0.03109341385317359</v>
+        <v>0.004839318018168062</v>
       </c>
       <c r="T18">
-        <v>0.03109341385317359</v>
+        <v>0.004839318018168064</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="H19">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="I19">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="J19">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1983123333333333</v>
+        <v>4.699187666666667</v>
       </c>
       <c r="N19">
-        <v>0.5949369999999999</v>
+        <v>14.097563</v>
       </c>
       <c r="O19">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="P19">
-        <v>0.1619944251679406</v>
+        <v>0.758486659760196</v>
       </c>
       <c r="Q19">
-        <v>2.680143325623555</v>
+        <v>90.90169711839667</v>
       </c>
       <c r="R19">
-        <v>24.121289930612</v>
+        <v>818.11527406557</v>
       </c>
       <c r="S19">
-        <v>0.07390786940731676</v>
+        <v>0.272570909446766</v>
       </c>
       <c r="T19">
-        <v>0.07390786940731676</v>
+        <v>0.2725709094467661</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="H20">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="I20">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="J20">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.211968</v>
+        <v>0.1492686666666667</v>
       </c>
       <c r="N20">
-        <v>0.635904</v>
+        <v>0.447806</v>
       </c>
       <c r="O20">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="P20">
-        <v>0.1731492627656275</v>
+        <v>0.02409316256721636</v>
       </c>
       <c r="Q20">
-        <v>2.864696365056</v>
+        <v>2.887472492926667</v>
       </c>
       <c r="R20">
-        <v>25.782267285504</v>
+        <v>25.98725243634</v>
       </c>
       <c r="S20">
-        <v>0.07899712034650791</v>
+        <v>0.0086581552198574</v>
       </c>
       <c r="T20">
-        <v>0.0789971203465079</v>
+        <v>0.0086581552198574</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="H21">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="I21">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="J21">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.730481</v>
+        <v>1.263591</v>
       </c>
       <c r="N21">
-        <v>2.191443</v>
+        <v>3.790773</v>
       </c>
       <c r="O21">
-        <v>0.5967044394167911</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="P21">
-        <v>0.596704439416791</v>
+        <v>0.2039537436845743</v>
       </c>
       <c r="Q21">
-        <v>9.872274425585335</v>
+        <v>24.44306857083</v>
       </c>
       <c r="R21">
-        <v>88.85046983026801</v>
+        <v>219.98761713747</v>
       </c>
       <c r="S21">
-        <v>0.2722387127671981</v>
+        <v>0.0732931247844926</v>
       </c>
       <c r="T21">
-        <v>0.272238712767198</v>
+        <v>0.0732931247844926</v>
       </c>
     </row>
   </sheetData>
